--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A7FFCCAB-8998-4B40-B52D-AC9F47DB9AB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="6030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="6030"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>admin</t>
   </si>
@@ -74,29 +73,50 @@
     <t>Black Pearl</t>
   </si>
   <si>
+    <t>regressiondvspotlight@gmail.com</t>
+  </si>
+  <si>
     <t>regressionautotrigger@gmail.com</t>
   </si>
   <si>
-    <t>Password@0051</t>
-  </si>
-  <si>
-    <t>regressionbranding1@gmail.com</t>
-  </si>
-  <si>
-    <t>Password@00039</t>
-  </si>
-  <si>
-    <t>Automation Suppression</t>
-  </si>
-  <si>
-    <t>35953929-B943-48B1-B7B4-51959EB06BC0</t>
+    <t>Password@00050</t>
+  </si>
+  <si>
+    <t>regmetalogic@gmail.com</t>
+  </si>
+  <si>
+    <t>Password@00051</t>
+  </si>
+  <si>
+    <t>sahmed2@cebglobal.com</t>
+  </si>
+  <si>
+    <t>Password@00011</t>
+  </si>
+  <si>
+    <t>slakshmi@cebglobal.com</t>
+  </si>
+  <si>
+    <t>Password@0013</t>
+  </si>
+  <si>
+    <t>test@123</t>
+  </si>
+  <si>
+    <t>regparticipant03@gmail.com</t>
+  </si>
+  <si>
+    <t>Password@30</t>
+  </si>
+  <si>
+    <t>Password@042</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,10 +141,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -153,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -225,21 +276,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -254,25 +290,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -303,7 +345,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -362,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,26 +437,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,23 +472,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -639,88 +647,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="B3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="B5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{0FB4EF2B-2C9D-4494-AF29-C42259E3FD45}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{2A72283B-95D8-499E-85F5-FF648F56D13C}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="B6" r:id="rId10"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="C6" r:id="rId13"/>
+    <hyperlink ref="C3" r:id="rId14"/>
+    <hyperlink ref="C5" r:id="rId15"/>
+    <hyperlink ref="C4" r:id="rId16"/>
+    <hyperlink ref="C2" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -741,32 +805,32 @@
       <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="regauthor01@gmail.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" display="regauthor01@gmail.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="regauthor01@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="regauthor01@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -788,7 +852,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -815,7 +879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
